--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/INVENTARIO ALMACEN  JUNIO  -2023 rtr.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/INVENTARIO ALMACEN  JUNIO  -2023 rtr.xlsx
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="119">
   <si>
     <t>INVENTARIO ALMACEN</t>
   </si>
@@ -599,19 +599,37 @@
     <t xml:space="preserve">PERNIL CON PIEL   I B P </t>
   </si>
   <si>
-    <t xml:space="preserve">ERROR DE BETY  PUSO MAS CAJAS EN EL TRASPASO </t>
-  </si>
-  <si>
-    <t>Da saldo en kg con cajas NEGATIVAS</t>
-  </si>
-  <si>
     <t>ERROR  DE BETY DUPLICO LA SALIDA 2 cajas  y 20 kg</t>
   </si>
   <si>
-    <t>en cajas no checa con lo fisico</t>
+    <t>en cajas no checa con lo fisico  GERARDO</t>
   </si>
   <si>
-    <t>ERROR DE BETY EN entrada REGISTRO DE CAJAS</t>
+    <t>REPORTA MAS GERARDO</t>
+  </si>
+  <si>
+    <t>REPORTA MAS Kg    GERARDO</t>
+  </si>
+  <si>
+    <t>REPORTA 1 CAJA +    GERARADO</t>
+  </si>
+  <si>
+    <t>NO REPORTA CAJAS  Y TIEN MENOS Kg GERARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTA + Kg   GERARDO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTA  Menos Kg   GERARDO </t>
+  </si>
+  <si>
+    <t>Reporta mas Kg  GERARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bety  Da existencia Kg y cajas negativas  LAS SALIDAS  SALIERON CON ERROR </t>
+  </si>
+  <si>
+    <t>ERROR DE BETY       EN entrada REGISTRO MAL  LAS   CAJAS</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1005,7 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="18"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -995,14 +1013,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1123,8 +1142,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="113">
+  <borders count="112">
     <border>
       <left/>
       <right/>
@@ -2529,25 +2566,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -2560,7 +2582,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="426">
+  <cellXfs count="482">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3403,9 +3425,6 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3461,21 +3480,6 @@
     <xf numFmtId="2" fontId="31" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3503,108 +3507,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="10" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="39" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3617,15 +3524,6 @@
     <xf numFmtId="0" fontId="44" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="20" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3641,6 +3539,286 @@
     <xf numFmtId="2" fontId="7" fillId="8" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="39" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="14" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="14" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="21" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="21" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="22" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="22" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="23" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="23" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="46" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -3651,16 +3829,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FF00FFCC"/>
+      <color rgb="FFCCCCFF"/>
       <color rgb="FFCC99FF"/>
+      <color rgb="FF9999FF"/>
+      <color rgb="FFCCFF99"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF99CC00"/>
-      <color rgb="FFCCFF99"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFD60093"/>
-      <color rgb="FF99CCFF"/>
-      <color rgb="FFF7EFFF"/>
-      <color rgb="FF669900"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3968,10 +4146,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="378" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="379"/>
+      <c r="B1" s="384" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="385"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3983,21 +4161,21 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="380">
+      <c r="B2" s="386">
         <v>44955</v>
       </c>
-      <c r="C2" s="381"/>
-      <c r="F2" s="382" t="s">
+      <c r="C2" s="387"/>
+      <c r="F2" s="388" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="382"/>
-      <c r="H2" s="382"/>
+      <c r="G2" s="388"/>
+      <c r="H2" s="388"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="383" t="s">
+      <c r="K2" s="389" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="383"/>
+      <c r="L2" s="389"/>
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
       <c r="Q2" s="12"/>
@@ -4007,30 +4185,30 @@
     </row>
     <row r="3" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="384" t="s">
+      <c r="C3" s="390" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="385"/>
+      <c r="D3" s="391"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="386" t="s">
+      <c r="F3" s="392" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="387"/>
+      <c r="G3" s="393"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="388" t="s">
+      <c r="I3" s="394" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="383"/>
-      <c r="L3" s="383"/>
-      <c r="M3" s="365" t="s">
+      <c r="K3" s="389"/>
+      <c r="L3" s="389"/>
+      <c r="M3" s="397" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="366"/>
-      <c r="O3" s="367" t="s">
+      <c r="N3" s="398"/>
+      <c r="O3" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="368"/>
+      <c r="P3" s="400"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
@@ -4056,7 +4234,7 @@
       <c r="H4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="389"/>
+      <c r="I4" s="395"/>
       <c r="J4" s="16"/>
       <c r="K4" s="21" t="s">
         <v>10</v>
@@ -4117,8 +4295,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="369"/>
-      <c r="P5" s="369"/>
+      <c r="O5" s="401"/>
+      <c r="P5" s="401"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
@@ -4160,8 +4338,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="370"/>
-      <c r="P6" s="370"/>
+      <c r="O6" s="402"/>
+      <c r="P6" s="402"/>
       <c r="Q6" s="45"/>
       <c r="R6" s="13"/>
       <c r="S6" s="46"/>
@@ -4244,8 +4422,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="371"/>
-      <c r="P8" s="371"/>
+      <c r="O8" s="403"/>
+      <c r="P8" s="403"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -4326,8 +4504,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="372"/>
-      <c r="P10" s="372"/>
+      <c r="O10" s="404"/>
+      <c r="P10" s="404"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -4455,8 +4633,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O13" s="373"/>
-      <c r="P13" s="373"/>
+      <c r="O13" s="405"/>
+      <c r="P13" s="405"/>
       <c r="Q13" s="45"/>
       <c r="R13" s="66"/>
       <c r="S13" s="66"/>
@@ -4724,8 +4902,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="374"/>
-      <c r="P20" s="374"/>
+      <c r="O20" s="406"/>
+      <c r="P20" s="406"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
@@ -4810,8 +4988,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="375"/>
-      <c r="P22" s="375"/>
+      <c r="O22" s="407"/>
+      <c r="P22" s="407"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="78"/>
       <c r="S22" s="78"/>
@@ -4853,8 +5031,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="376"/>
-      <c r="P23" s="376"/>
+      <c r="O23" s="408"/>
+      <c r="P23" s="408"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
@@ -4976,8 +5154,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O26" s="377"/>
-      <c r="P26" s="377"/>
+      <c r="O26" s="409"/>
+      <c r="P26" s="409"/>
       <c r="Q26" s="45"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
@@ -5490,10 +5668,10 @@
     <row r="40" spans="1:20" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="145"/>
       <c r="D40" s="147"/>
-      <c r="F40" s="364" t="s">
+      <c r="F40" s="396" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="364"/>
+      <c r="G40" s="396"/>
       <c r="H40" s="148">
         <f>SUM(H5:H31)</f>
         <v>51250.14</v>
@@ -5693,13 +5871,6 @@
     <sortCondition ref="B5:B38"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -5712,6 +5883,13 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="78" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5754,10 +5932,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="378" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="379"/>
+      <c r="B1" s="384" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="385"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -5772,26 +5950,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="390">
+      <c r="B2" s="410">
         <v>44989</v>
       </c>
-      <c r="C2" s="391"/>
-      <c r="F2" s="392" t="s">
+      <c r="C2" s="411"/>
+      <c r="F2" s="412" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="393"/>
-      <c r="H2" s="394"/>
-      <c r="I2" s="395"/>
-      <c r="J2" s="396" t="s">
+      <c r="G2" s="413"/>
+      <c r="H2" s="414"/>
+      <c r="I2" s="415"/>
+      <c r="J2" s="416" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="396"/>
-      <c r="L2" s="397"/>
+      <c r="K2" s="416"/>
+      <c r="L2" s="417"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="383" t="s">
+      <c r="N2" s="389" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="383"/>
+      <c r="O2" s="389"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -5801,33 +5979,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="400" t="s">
+      <c r="C3" s="420" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="401"/>
+      <c r="D3" s="421"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="402" t="s">
+      <c r="F3" s="422" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="403"/>
+      <c r="G3" s="423"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="404" t="s">
+      <c r="I3" s="424" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="399"/>
+      <c r="J3" s="418"/>
+      <c r="K3" s="418"/>
+      <c r="L3" s="419"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="383"/>
-      <c r="O3" s="383"/>
-      <c r="P3" s="365" t="s">
+      <c r="N3" s="389"/>
+      <c r="O3" s="389"/>
+      <c r="P3" s="397" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="366"/>
-      <c r="R3" s="367" t="s">
+      <c r="Q3" s="398"/>
+      <c r="R3" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="368"/>
+      <c r="S3" s="400"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -5853,7 +6031,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="405"/>
+      <c r="I4" s="425"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -5929,8 +6107,8 @@
       <c r="Q5" s="38">
         <v>0</v>
       </c>
-      <c r="R5" s="369"/>
-      <c r="S5" s="369"/>
+      <c r="R5" s="401"/>
+      <c r="S5" s="401"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -5967,8 +6145,8 @@
         <f>O6-I6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="370"/>
-      <c r="S6" s="370"/>
+      <c r="R6" s="402"/>
+      <c r="S6" s="402"/>
       <c r="T6" s="45"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -6055,8 +6233,8 @@
       <c r="Q8" s="52">
         <v>0</v>
       </c>
-      <c r="R8" s="371"/>
-      <c r="S8" s="371"/>
+      <c r="R8" s="403"/>
+      <c r="S8" s="403"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -6143,8 +6321,8 @@
       <c r="Q10" s="52">
         <v>0</v>
       </c>
-      <c r="R10" s="372"/>
-      <c r="S10" s="372"/>
+      <c r="R10" s="404"/>
+      <c r="S10" s="404"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -6284,8 +6462,8 @@
       <c r="Q13" s="52">
         <v>0</v>
       </c>
-      <c r="R13" s="373"/>
-      <c r="S13" s="373"/>
+      <c r="R13" s="405"/>
+      <c r="S13" s="405"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -6593,8 +6771,8 @@
       <c r="Q20" s="52">
         <v>0</v>
       </c>
-      <c r="R20" s="374"/>
-      <c r="S20" s="374"/>
+      <c r="R20" s="406"/>
+      <c r="S20" s="406"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -6681,8 +6859,8 @@
       <c r="Q22" s="52">
         <v>0</v>
       </c>
-      <c r="R22" s="375"/>
-      <c r="S22" s="375"/>
+      <c r="R22" s="407"/>
+      <c r="S22" s="407"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -6728,8 +6906,8 @@
       <c r="Q23" s="52">
         <v>0</v>
       </c>
-      <c r="R23" s="376"/>
-      <c r="S23" s="376"/>
+      <c r="R23" s="408"/>
+      <c r="S23" s="408"/>
       <c r="T23" s="45"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -6869,8 +7047,8 @@
       <c r="Q26" s="52">
         <v>0</v>
       </c>
-      <c r="R26" s="377"/>
-      <c r="S26" s="377"/>
+      <c r="R26" s="409"/>
+      <c r="S26" s="409"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -7553,10 +7731,10 @@
     <row r="43" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="145"/>
       <c r="D43" s="147"/>
-      <c r="F43" s="364" t="s">
+      <c r="F43" s="396" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="364"/>
+      <c r="G43" s="396"/>
       <c r="H43" s="148">
         <f>SUM(H5:H34)</f>
         <v>52842.86</v>
@@ -7777,14 +7955,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -7797,6 +7967,14 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.35" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7839,10 +8017,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="378" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="379"/>
+      <c r="B1" s="384" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="385"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -7857,26 +8035,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="390">
+      <c r="B2" s="410">
         <v>45017</v>
       </c>
-      <c r="C2" s="391"/>
-      <c r="F2" s="392" t="s">
+      <c r="C2" s="411"/>
+      <c r="F2" s="412" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="393"/>
-      <c r="H2" s="394"/>
-      <c r="I2" s="395"/>
-      <c r="J2" s="396" t="s">
+      <c r="G2" s="413"/>
+      <c r="H2" s="414"/>
+      <c r="I2" s="415"/>
+      <c r="J2" s="416" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="396"/>
-      <c r="L2" s="397"/>
+      <c r="K2" s="416"/>
+      <c r="L2" s="417"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="383" t="s">
+      <c r="N2" s="389" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="383"/>
+      <c r="O2" s="389"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -7886,33 +8064,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="400" t="s">
+      <c r="C3" s="420" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="401"/>
+      <c r="D3" s="421"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="402" t="s">
+      <c r="F3" s="422" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="403"/>
+      <c r="G3" s="423"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="404" t="s">
+      <c r="I3" s="424" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="399"/>
+      <c r="J3" s="418"/>
+      <c r="K3" s="418"/>
+      <c r="L3" s="419"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="383"/>
-      <c r="O3" s="383"/>
-      <c r="P3" s="365" t="s">
+      <c r="N3" s="389"/>
+      <c r="O3" s="389"/>
+      <c r="P3" s="397" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="366"/>
-      <c r="R3" s="367" t="s">
+      <c r="Q3" s="398"/>
+      <c r="R3" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="368"/>
+      <c r="S3" s="400"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -7938,7 +8116,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="405"/>
+      <c r="I4" s="425"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -8013,8 +8191,8 @@
         <f>O5-I5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="369"/>
-      <c r="S5" s="369"/>
+      <c r="R5" s="401"/>
+      <c r="S5" s="401"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -8067,8 +8245,8 @@
         <f>O6-I6</f>
         <v>-2</v>
       </c>
-      <c r="R6" s="370"/>
-      <c r="S6" s="370"/>
+      <c r="R6" s="402"/>
+      <c r="S6" s="402"/>
       <c r="T6" s="180" t="s">
         <v>79</v>
       </c>
@@ -8173,8 +8351,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R8" s="371"/>
-      <c r="S8" s="371"/>
+      <c r="R8" s="403"/>
+      <c r="S8" s="403"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -8261,8 +8439,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="372"/>
-      <c r="S10" s="372"/>
+      <c r="R10" s="404"/>
+      <c r="S10" s="404"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -8413,8 +8591,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R13" s="373"/>
-      <c r="S13" s="373"/>
+      <c r="R13" s="405"/>
+      <c r="S13" s="405"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -8747,8 +8925,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="374"/>
-      <c r="S20" s="374"/>
+      <c r="R20" s="406"/>
+      <c r="S20" s="406"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -8835,8 +9013,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="375"/>
-      <c r="S22" s="375"/>
+      <c r="R22" s="407"/>
+      <c r="S22" s="407"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -8885,8 +9063,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R23" s="376"/>
-      <c r="S23" s="376"/>
+      <c r="R23" s="408"/>
+      <c r="S23" s="408"/>
       <c r="T23" s="180" t="s">
         <v>80</v>
       </c>
@@ -9025,8 +9203,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R26" s="377"/>
-      <c r="S26" s="377"/>
+      <c r="R26" s="409"/>
+      <c r="S26" s="409"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -10130,10 +10308,10 @@
     <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="406" t="s">
+      <c r="F51" s="426" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="406"/>
+      <c r="G51" s="426"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>74525.02</v>
@@ -10361,14 +10539,6 @@
     <sortCondition ref="B5:B50"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -10381,6 +10551,14 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.31" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10423,10 +10601,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="378" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="379"/>
+      <c r="B1" s="384" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="385"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -10441,26 +10619,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="390">
+      <c r="B2" s="410">
         <v>45056</v>
       </c>
-      <c r="C2" s="391"/>
-      <c r="F2" s="392" t="s">
+      <c r="C2" s="411"/>
+      <c r="F2" s="412" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="393"/>
-      <c r="H2" s="394"/>
-      <c r="I2" s="395"/>
-      <c r="J2" s="396" t="s">
+      <c r="G2" s="413"/>
+      <c r="H2" s="414"/>
+      <c r="I2" s="415"/>
+      <c r="J2" s="416" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="396"/>
-      <c r="L2" s="397"/>
+      <c r="K2" s="416"/>
+      <c r="L2" s="417"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="383" t="s">
+      <c r="N2" s="389" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="383"/>
+      <c r="O2" s="389"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -10470,33 +10648,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="400" t="s">
+      <c r="C3" s="420" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="401"/>
+      <c r="D3" s="421"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="402" t="s">
+      <c r="F3" s="422" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="403"/>
+      <c r="G3" s="423"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="404" t="s">
+      <c r="I3" s="424" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="399"/>
+      <c r="J3" s="418"/>
+      <c r="K3" s="418"/>
+      <c r="L3" s="419"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="383"/>
-      <c r="O3" s="383"/>
-      <c r="P3" s="365" t="s">
+      <c r="N3" s="389"/>
+      <c r="O3" s="389"/>
+      <c r="P3" s="397" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="366"/>
-      <c r="R3" s="367" t="s">
+      <c r="Q3" s="398"/>
+      <c r="R3" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="368"/>
+      <c r="S3" s="400"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -10522,7 +10700,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="405"/>
+      <c r="I4" s="425"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -10593,8 +10771,8 @@
         <f>I5-L5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="369"/>
-      <c r="S5" s="369"/>
+      <c r="R5" s="401"/>
+      <c r="S5" s="401"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -10643,8 +10821,8 @@
         <f>I6-L6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="370"/>
-      <c r="S6" s="370"/>
+      <c r="R6" s="402"/>
+      <c r="S6" s="402"/>
       <c r="T6" s="180"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -10739,8 +10917,8 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="R8" s="371"/>
-      <c r="S8" s="371"/>
+      <c r="R8" s="403"/>
+      <c r="S8" s="403"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -10815,8 +10993,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="372"/>
-      <c r="S10" s="372"/>
+      <c r="R10" s="404"/>
+      <c r="S10" s="404"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -10937,8 +11115,8 @@
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="R13" s="373"/>
-      <c r="S13" s="373"/>
+      <c r="R13" s="405"/>
+      <c r="S13" s="405"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -11219,8 +11397,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="374"/>
-      <c r="S20" s="374"/>
+      <c r="R20" s="406"/>
+      <c r="S20" s="406"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -11295,8 +11473,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="375"/>
-      <c r="S22" s="375"/>
+      <c r="R22" s="407"/>
+      <c r="S22" s="407"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -11341,8 +11519,8 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="R23" s="376"/>
-      <c r="S23" s="376"/>
+      <c r="R23" s="408"/>
+      <c r="S23" s="408"/>
       <c r="T23" s="180"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -11471,8 +11649,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R26" s="377"/>
-      <c r="S26" s="377"/>
+      <c r="R26" s="409"/>
+      <c r="S26" s="409"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -12478,10 +12656,10 @@
     <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="406" t="s">
+      <c r="F51" s="426" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="406"/>
+      <c r="G51" s="426"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>51160.97</v>
@@ -12704,6 +12882,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -12716,14 +12902,6 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12767,10 +12945,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="378" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="379"/>
+      <c r="B1" s="384" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="385"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -12785,26 +12963,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="390">
+      <c r="B2" s="410">
         <v>45082</v>
       </c>
-      <c r="C2" s="391"/>
-      <c r="F2" s="392" t="s">
+      <c r="C2" s="411"/>
+      <c r="F2" s="412" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="393"/>
-      <c r="H2" s="394"/>
-      <c r="I2" s="395"/>
-      <c r="J2" s="396" t="s">
+      <c r="G2" s="413"/>
+      <c r="H2" s="414"/>
+      <c r="I2" s="415"/>
+      <c r="J2" s="416" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="396"/>
-      <c r="L2" s="397"/>
+      <c r="K2" s="416"/>
+      <c r="L2" s="417"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="383" t="s">
+      <c r="N2" s="389" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="383"/>
+      <c r="O2" s="389"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -12814,33 +12992,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="400" t="s">
+      <c r="C3" s="420" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="401"/>
+      <c r="D3" s="421"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="402" t="s">
+      <c r="F3" s="422" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="403"/>
+      <c r="G3" s="423"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="404" t="s">
+      <c r="I3" s="424" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="399"/>
+      <c r="J3" s="418"/>
+      <c r="K3" s="418"/>
+      <c r="L3" s="419"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="383"/>
-      <c r="O3" s="383"/>
-      <c r="P3" s="365" t="s">
+      <c r="N3" s="389"/>
+      <c r="O3" s="389"/>
+      <c r="P3" s="397" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="366"/>
-      <c r="R3" s="367" t="s">
+      <c r="Q3" s="398"/>
+      <c r="R3" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="368"/>
+      <c r="S3" s="400"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -12866,7 +13044,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="405"/>
+      <c r="I4" s="425"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -12929,8 +13107,8 @@
         <f>I5-L5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="369"/>
-      <c r="S5" s="369"/>
+      <c r="R5" s="401"/>
+      <c r="S5" s="401"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -12979,8 +13157,8 @@
         <f>O6-L6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="370"/>
-      <c r="S6" s="370"/>
+      <c r="R6" s="402"/>
+      <c r="S6" s="402"/>
       <c r="T6" s="180"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -13071,8 +13249,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R8" s="371"/>
-      <c r="S8" s="371"/>
+      <c r="R8" s="403"/>
+      <c r="S8" s="403"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -13147,8 +13325,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="372"/>
-      <c r="S10" s="372"/>
+      <c r="R10" s="404"/>
+      <c r="S10" s="404"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -13229,10 +13407,10 @@
       <c r="K12" s="342"/>
       <c r="L12" s="343"/>
       <c r="M12" s="42"/>
-      <c r="N12" s="346">
-        <v>0</v>
-      </c>
-      <c r="O12" s="347">
+      <c r="N12" s="345">
+        <v>0</v>
+      </c>
+      <c r="O12" s="346">
         <v>0</v>
       </c>
       <c r="P12" s="341">
@@ -13245,7 +13423,7 @@
       </c>
       <c r="R12" s="62"/>
       <c r="S12" s="63"/>
-      <c r="T12" s="350" t="s">
+      <c r="T12" s="349" t="s">
         <v>98</v>
       </c>
       <c r="U12" s="13"/>
@@ -13295,8 +13473,8 @@
         <f>O13-I13</f>
         <v>0</v>
       </c>
-      <c r="R13" s="373"/>
-      <c r="S13" s="373"/>
+      <c r="R13" s="405"/>
+      <c r="S13" s="405"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -13527,7 +13705,7 @@
       </c>
       <c r="R18" s="71"/>
       <c r="S18" s="72"/>
-      <c r="T18" s="348" t="s">
+      <c r="T18" s="347" t="s">
         <v>99</v>
       </c>
       <c r="U18" s="13"/>
@@ -13615,8 +13793,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R20" s="374"/>
-      <c r="S20" s="374"/>
+      <c r="R20" s="406"/>
+      <c r="S20" s="406"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -13703,8 +13881,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R22" s="375"/>
-      <c r="S22" s="375"/>
+      <c r="R22" s="407"/>
+      <c r="S22" s="407"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -13753,9 +13931,9 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="R23" s="376"/>
-      <c r="S23" s="376"/>
-      <c r="T23" s="348" t="s">
+      <c r="R23" s="408"/>
+      <c r="S23" s="408"/>
+      <c r="T23" s="347" t="s">
         <v>99</v>
       </c>
       <c r="U23" s="13"/>
@@ -13905,9 +14083,9 @@
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="R26" s="377"/>
-      <c r="S26" s="377"/>
-      <c r="T26" s="348" t="s">
+      <c r="R26" s="409"/>
+      <c r="S26" s="409"/>
+      <c r="T26" s="347" t="s">
         <v>99</v>
       </c>
       <c r="U26" s="13"/>
@@ -14009,7 +14187,7 @@
       </c>
       <c r="R28" s="211"/>
       <c r="S28" s="211"/>
-      <c r="T28" s="348" t="s">
+      <c r="T28" s="347" t="s">
         <v>99</v>
       </c>
       <c r="U28" s="13"/>
@@ -14141,7 +14319,7 @@
       </c>
       <c r="R31" s="92"/>
       <c r="S31" s="93"/>
-      <c r="T31" s="348" t="s">
+      <c r="T31" s="347" t="s">
         <v>99</v>
       </c>
       <c r="U31" s="13"/>
@@ -14425,7 +14603,7 @@
     </row>
     <row r="38" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="109"/>
-      <c r="B38" s="345" t="s">
+      <c r="B38" s="344" t="s">
         <v>59</v>
       </c>
       <c r="C38" s="28">
@@ -14469,7 +14647,7 @@
       </c>
       <c r="R38" s="107"/>
       <c r="S38" s="108"/>
-      <c r="T38" s="348" t="s">
+      <c r="T38" s="347" t="s">
         <v>99</v>
       </c>
       <c r="U38" s="13"/>
@@ -14549,13 +14727,13 @@
         <f t="shared" si="8"/>
         <v>4473.67</v>
       </c>
-      <c r="Q40" s="349">
+      <c r="Q40" s="348">
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
       <c r="R40" s="116"/>
       <c r="S40" s="117"/>
-      <c r="T40" s="350" t="s">
+      <c r="T40" s="349" t="s">
         <v>100</v>
       </c>
       <c r="U40" s="13"/>
@@ -14809,7 +14987,7 @@
       </c>
       <c r="R46" s="107"/>
       <c r="S46" s="108"/>
-      <c r="T46" s="348" t="s">
+      <c r="T46" s="347" t="s">
         <v>99</v>
       </c>
       <c r="U46" s="13"/>
@@ -14983,10 +15161,10 @@
     <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="406" t="s">
+      <c r="F51" s="426" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="406"/>
+      <c r="G51" s="426"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>55132.759999999995</v>
@@ -15037,13 +15215,13 @@
       <c r="W53" s="13"/>
     </row>
     <row r="54" spans="2:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="353" t="s">
+      <c r="C54" s="352" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="354"/>
-      <c r="E54" s="355"/>
-      <c r="F54" s="355"/>
-      <c r="G54" s="356"/>
+      <c r="D54" s="353"/>
+      <c r="E54" s="354"/>
+      <c r="F54" s="354"/>
+      <c r="G54" s="355"/>
       <c r="H54" s="166"/>
       <c r="I54" s="166"/>
       <c r="J54" s="166"/>
@@ -15078,18 +15256,18 @@
     </row>
     <row r="56" spans="2:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="175"/>
-      <c r="C56" s="351" t="s">
+      <c r="C56" s="350" t="s">
         <v>101</v>
       </c>
       <c r="D56" s="163"/>
-      <c r="E56" s="352"/>
-      <c r="F56" s="352"/>
-      <c r="G56" s="352"/>
-      <c r="H56" s="352"/>
-      <c r="I56" s="352"/>
-      <c r="J56" s="352"/>
-      <c r="K56" s="352"/>
-      <c r="L56" s="352"/>
+      <c r="E56" s="351"/>
+      <c r="F56" s="351"/>
+      <c r="G56" s="351"/>
+      <c r="H56" s="351"/>
+      <c r="I56" s="351"/>
+      <c r="J56" s="351"/>
+      <c r="K56" s="351"/>
+      <c r="L56" s="351"/>
       <c r="M56" s="305"/>
       <c r="N56" s="305"/>
       <c r="O56" s="305"/>
@@ -15116,18 +15294,18 @@
     </row>
     <row r="58" spans="2:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="175"/>
-      <c r="C58" s="357" t="s">
+      <c r="C58" s="356" t="s">
         <v>102</v>
       </c>
-      <c r="D58" s="358"/>
-      <c r="E58" s="359"/>
-      <c r="F58" s="359"/>
-      <c r="G58" s="359"/>
-      <c r="H58" s="359"/>
-      <c r="I58" s="360"/>
-      <c r="J58" s="360"/>
-      <c r="K58" s="360"/>
-      <c r="L58" s="360"/>
+      <c r="D58" s="357"/>
+      <c r="E58" s="358"/>
+      <c r="F58" s="358"/>
+      <c r="G58" s="358"/>
+      <c r="H58" s="358"/>
+      <c r="I58" s="359"/>
+      <c r="J58" s="359"/>
+      <c r="K58" s="359"/>
+      <c r="L58" s="359"/>
       <c r="M58" s="181"/>
       <c r="N58" s="181"/>
       <c r="O58" s="181"/>
@@ -15136,19 +15314,19 @@
     </row>
     <row r="59" spans="2:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="175"/>
-      <c r="C59" s="363" t="s">
+      <c r="C59" s="362" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="361"/>
-      <c r="E59" s="362"/>
-      <c r="F59" s="362"/>
-      <c r="G59" s="362"/>
-      <c r="H59" s="362"/>
-      <c r="I59" s="362"/>
-      <c r="J59" s="362"/>
-      <c r="K59" s="362"/>
-      <c r="L59" s="362"/>
-      <c r="M59" s="362"/>
+      <c r="D59" s="360"/>
+      <c r="E59" s="361"/>
+      <c r="F59" s="361"/>
+      <c r="G59" s="361"/>
+      <c r="H59" s="361"/>
+      <c r="I59" s="361"/>
+      <c r="J59" s="361"/>
+      <c r="K59" s="361"/>
+      <c r="L59" s="361"/>
+      <c r="M59" s="361"/>
       <c r="N59" s="183"/>
       <c r="O59" s="178"/>
       <c r="P59" s="184"/>
@@ -15214,14 +15392,6 @@
     <sortCondition ref="B27:B47"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -15234,6 +15404,14 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15246,13 +15424,13 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -15272,18 +15450,17 @@
     <col min="13" max="13" width="6.140625" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" customWidth="1"/>
     <col min="15" max="15" width="11.140625" style="156" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="161"/>
+    <col min="16" max="16" width="13" style="161" customWidth="1"/>
     <col min="17" max="17" width="10" style="146" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="41.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.5703125" style="109" customWidth="1"/>
+    <col min="19" max="19" width="60.85546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="378" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="379"/>
+    <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="384" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="385"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -15294,72 +15471,68 @@
       <c r="O1" s="3"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="6"/>
-    </row>
-    <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="390">
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="442">
         <v>45108</v>
       </c>
-      <c r="C2" s="391"/>
-      <c r="F2" s="392" t="s">
+      <c r="C2" s="443"/>
+      <c r="F2" s="412" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="393"/>
-      <c r="H2" s="394"/>
-      <c r="I2" s="395"/>
-      <c r="J2" s="396" t="s">
+      <c r="G2" s="413"/>
+      <c r="H2" s="414"/>
+      <c r="I2" s="415"/>
+      <c r="J2" s="416" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="396"/>
-      <c r="L2" s="397"/>
+      <c r="K2" s="416"/>
+      <c r="L2" s="417"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="383" t="s">
+      <c r="N2" s="389" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="383"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="10"/>
-      <c r="T2" s="12"/>
+      <c r="O2" s="389"/>
+      <c r="P2" s="444" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="445"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="13"/>
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-    </row>
-    <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="400" t="s">
+      <c r="C3" s="420" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="401"/>
+      <c r="D3" s="421"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="402" t="s">
+      <c r="F3" s="422" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="403"/>
+      <c r="G3" s="423"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="404" t="s">
+      <c r="I3" s="424" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="399"/>
+      <c r="J3" s="418"/>
+      <c r="K3" s="418"/>
+      <c r="L3" s="419"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="383"/>
-      <c r="O3" s="383"/>
-      <c r="P3" s="365" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="366"/>
-      <c r="R3" s="367" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="368"/>
-      <c r="T3" s="12"/>
+      <c r="N3" s="389"/>
+      <c r="O3" s="389"/>
+      <c r="P3" s="446"/>
+      <c r="Q3" s="447"/>
+      <c r="R3" s="476"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-    </row>
-    <row r="4" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
@@ -15379,7 +15552,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="405"/>
+      <c r="I4" s="425"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -15394,24 +15567,19 @@
       <c r="O4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="448" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="449" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="T4" s="12"/>
+      <c r="R4" s="477"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="13"/>
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-    </row>
-    <row r="5" spans="2:27" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:26" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>73</v>
       </c>
@@ -15442,14 +15610,13 @@
         <f>I5-L5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="369"/>
-      <c r="S5" s="369"/>
-      <c r="T5" s="12"/>
+      <c r="R5" s="363"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="13"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-    </row>
-    <row r="6" spans="2:27" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="2:26" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>12</v>
       </c>
@@ -15480,18 +15647,17 @@
         <f>O6-L6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="370"/>
-      <c r="S6" s="370"/>
-      <c r="T6" s="180"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R6" s="364"/>
+      <c r="S6" s="180"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="30" t="s">
         <v>13</v>
       </c>
@@ -15512,7 +15678,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J7" s="219"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="279">
         <v>128.51</v>
       </c>
@@ -15535,13 +15701,12 @@
         <v>0</v>
       </c>
       <c r="R7" s="53"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="13"/>
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-    </row>
-    <row r="8" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="30" t="s">
         <v>15</v>
       </c>
@@ -15552,7 +15717,7 @@
         <v>741.13</v>
       </c>
       <c r="G8" s="31">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H8" s="224">
         <f t="shared" si="0"/>
@@ -15560,13 +15725,13 @@
       </c>
       <c r="I8" s="41">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="J8" s="219"/>
-      <c r="K8" s="318">
+        <v>63</v>
+      </c>
+      <c r="J8" s="54"/>
+      <c r="K8" s="279">
         <v>742.13</v>
       </c>
-      <c r="L8" s="319">
+      <c r="L8" s="214">
         <v>63</v>
       </c>
       <c r="M8" s="42"/>
@@ -15584,16 +15749,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R8" s="371"/>
-      <c r="S8" s="371"/>
-      <c r="T8" s="410" t="s">
-        <v>108</v>
-      </c>
-      <c r="U8" s="411"/>
+      <c r="R8" s="365"/>
+      <c r="S8" s="450"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
       <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-    </row>
-    <row r="9" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="30" t="s">
         <v>105</v>
       </c>
@@ -15614,7 +15776,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J9" s="219"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="279">
         <v>562.79999999999995</v>
       </c>
@@ -15637,13 +15799,12 @@
         <v>0</v>
       </c>
       <c r="R9" s="57"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-    </row>
-    <row r="10" spans="2:27" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="2:26" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="30" t="s">
         <v>71</v>
       </c>
@@ -15660,7 +15821,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="219"/>
+      <c r="J10" s="54"/>
       <c r="K10" s="279"/>
       <c r="L10" s="214"/>
       <c r="M10" s="42"/>
@@ -15674,14 +15835,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R10" s="372"/>
-      <c r="S10" s="372"/>
-      <c r="T10" s="45"/>
+      <c r="R10" s="366"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="13"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-    </row>
-    <row r="11" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:26" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="30" t="s">
         <v>17</v>
       </c>
@@ -15702,7 +15862,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J11" s="219"/>
+      <c r="J11" s="54"/>
       <c r="K11" s="279">
         <v>240.73</v>
       </c>
@@ -15724,24 +15884,23 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R11" s="344"/>
-      <c r="S11" s="344"/>
-      <c r="T11" s="180"/>
+      <c r="R11" s="366"/>
+      <c r="S11" s="180"/>
+      <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-    </row>
-    <row r="12" spans="2:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="30" t="s">
+    </row>
+    <row r="12" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="437" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="28">
-        <v>0</v>
-      </c>
-      <c r="G12" s="31">
+      <c r="C12" s="438"/>
+      <c r="D12" s="439"/>
+      <c r="E12" s="440"/>
+      <c r="F12" s="438">
+        <v>0</v>
+      </c>
+      <c r="G12" s="441">
         <v>47</v>
       </c>
       <c r="H12" s="226">
@@ -15752,7 +15911,7 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="J12" s="219"/>
+      <c r="J12" s="54"/>
       <c r="K12" s="318"/>
       <c r="L12" s="319"/>
       <c r="M12" s="42"/>
@@ -15762,20 +15921,19 @@
         <f t="shared" ref="P12:Q50" si="2">H12-K12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="425">
+      <c r="Q12" s="383">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="R12" s="62"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="412" t="s">
-        <v>112</v>
-      </c>
+      <c r="R12" s="451"/>
+      <c r="S12" s="462" t="s">
+        <v>118</v>
+      </c>
+      <c r="T12" s="13"/>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-    </row>
-    <row r="13" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="30" t="s">
         <v>18</v>
       </c>
@@ -15796,7 +15954,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J13" s="219"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="279">
         <v>110</v>
       </c>
@@ -15818,14 +15976,13 @@
         <f>O13-I13</f>
         <v>-1</v>
       </c>
-      <c r="R13" s="373"/>
-      <c r="S13" s="373"/>
-      <c r="T13" s="45"/>
+      <c r="R13" s="367"/>
+      <c r="S13" s="463"/>
+      <c r="T13" s="66"/>
       <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="13"/>
-    </row>
-    <row r="14" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V13" s="13"/>
+    </row>
+    <row r="14" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="30" t="s">
         <v>19</v>
       </c>
@@ -15850,11 +16007,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J14" s="219"/>
-      <c r="K14" s="407">
+      <c r="J14" s="54"/>
+      <c r="K14" s="372">
         <v>140</v>
       </c>
-      <c r="L14" s="408">
+      <c r="L14" s="373">
         <v>14</v>
       </c>
       <c r="M14" s="42"/>
@@ -15872,16 +16029,15 @@
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="R14" s="67"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="418" t="s">
-        <v>110</v>
-      </c>
+      <c r="R14" s="452"/>
+      <c r="S14" s="464" t="s">
+        <v>108</v>
+      </c>
+      <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-    </row>
-    <row r="15" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="64" t="s">
         <v>75</v>
       </c>
@@ -15902,7 +16058,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J15" s="219"/>
+      <c r="J15" s="54"/>
       <c r="K15" s="289">
         <v>338.07</v>
       </c>
@@ -15910,26 +16066,25 @@
         <v>16</v>
       </c>
       <c r="M15" s="42"/>
-      <c r="N15" s="421"/>
-      <c r="O15" s="422"/>
-      <c r="P15" s="423">
+      <c r="N15" s="379"/>
+      <c r="O15" s="380"/>
+      <c r="P15" s="381">
         <f t="shared" si="3"/>
         <v>-338.07</v>
       </c>
-      <c r="Q15" s="424">
+      <c r="Q15" s="382">
         <f t="shared" si="3"/>
         <v>-16</v>
       </c>
-      <c r="R15" s="67"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="419" t="s">
-        <v>111</v>
-      </c>
+      <c r="R15" s="452"/>
+      <c r="S15" s="465" t="s">
+        <v>109</v>
+      </c>
+      <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-    </row>
-    <row r="16" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="64" t="s">
         <v>69</v>
       </c>
@@ -15950,7 +16105,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J16" s="219"/>
+      <c r="J16" s="54"/>
       <c r="K16" s="279">
         <v>561.91999999999996</v>
       </c>
@@ -15958,28 +16113,27 @@
         <v>20</v>
       </c>
       <c r="M16" s="42"/>
-      <c r="N16" s="421">
+      <c r="N16" s="379">
         <v>899.94</v>
       </c>
-      <c r="O16" s="422">
+      <c r="O16" s="380">
         <v>26</v>
       </c>
-      <c r="P16" s="423">
+      <c r="P16" s="381">
         <f t="shared" si="3"/>
         <v>338.0200000000001</v>
       </c>
-      <c r="Q16" s="424">
+      <c r="Q16" s="382">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="R16" s="69"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="420"/>
+      <c r="R16" s="453"/>
+      <c r="S16" s="465"/>
+      <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-    </row>
-    <row r="17" spans="2:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -15996,7 +16150,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="219"/>
+      <c r="J17" s="54"/>
       <c r="K17" s="279"/>
       <c r="L17" s="214"/>
       <c r="M17" s="42"/>
@@ -16010,14 +16164,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R17" s="69"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="45"/>
+      <c r="R17" s="453"/>
+      <c r="S17" s="463"/>
+      <c r="T17" s="13"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-    </row>
-    <row r="18" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="30" t="s">
         <v>76</v>
       </c>
@@ -16038,7 +16191,7 @@
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="J18" s="219"/>
+      <c r="J18" s="54"/>
       <c r="K18" s="279">
         <v>2159.0100000000002</v>
       </c>
@@ -16052,22 +16205,23 @@
       <c r="O18" s="245">
         <v>84</v>
       </c>
-      <c r="P18" s="327">
+      <c r="P18" s="341">
         <f t="shared" si="3"/>
         <v>32.089999999999691</v>
       </c>
-      <c r="Q18" s="328">
+      <c r="Q18" s="348">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R18" s="71"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="180"/>
+      <c r="R18" s="478"/>
+      <c r="S18" s="466" t="s">
+        <v>110</v>
+      </c>
+      <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-    </row>
-    <row r="19" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="30" t="s">
         <v>22</v>
       </c>
@@ -16088,7 +16242,7 @@
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
-      <c r="J19" s="219"/>
+      <c r="J19" s="54"/>
       <c r="K19" s="279">
         <v>5542.92</v>
       </c>
@@ -16102,22 +16256,23 @@
       <c r="O19" s="245">
         <v>202</v>
       </c>
-      <c r="P19" s="327">
+      <c r="P19" s="427">
         <f t="shared" si="3"/>
         <v>30.630000000000109</v>
       </c>
-      <c r="Q19" s="328">
+      <c r="Q19" s="428">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R19" s="73"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="180"/>
+      <c r="R19" s="479"/>
+      <c r="S19" s="467" t="s">
+        <v>111</v>
+      </c>
+      <c r="T19" s="13"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-    </row>
-    <row r="20" spans="2:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="30" t="s">
         <v>24</v>
       </c>
@@ -16134,7 +16289,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="219"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="279"/>
       <c r="L20" s="214"/>
       <c r="M20" s="42"/>
@@ -16148,14 +16303,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R20" s="374"/>
-      <c r="S20" s="374"/>
-      <c r="T20" s="45"/>
+      <c r="R20" s="368"/>
+      <c r="S20" s="463"/>
+      <c r="T20" s="13"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="2:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="30" t="s">
         <v>61</v>
       </c>
@@ -16172,7 +16326,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="219"/>
+      <c r="J21" s="54"/>
       <c r="K21" s="279"/>
       <c r="L21" s="214"/>
       <c r="M21" s="42"/>
@@ -16186,14 +16340,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R21" s="75"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="45"/>
+      <c r="R21" s="454"/>
+      <c r="S21" s="463"/>
+      <c r="T21" s="77"/>
       <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="13"/>
-    </row>
-    <row r="22" spans="2:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V21" s="13"/>
+    </row>
+    <row r="22" spans="2:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="30" t="s">
         <v>25</v>
       </c>
@@ -16210,7 +16363,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="219"/>
+      <c r="J22" s="54"/>
       <c r="K22" s="279"/>
       <c r="L22" s="214"/>
       <c r="M22" s="42"/>
@@ -16224,14 +16377,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R22" s="375"/>
-      <c r="S22" s="375"/>
-      <c r="T22" s="45"/>
+      <c r="R22" s="369"/>
+      <c r="S22" s="463"/>
+      <c r="T22" s="78"/>
       <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V22" s="13"/>
+    </row>
+    <row r="23" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="30" t="s">
         <v>26</v>
       </c>
@@ -16252,7 +16404,7 @@
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="J23" s="219"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="279">
         <v>2001.97</v>
       </c>
@@ -16274,14 +16426,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R23" s="376"/>
-      <c r="S23" s="376"/>
-      <c r="T23" s="180"/>
+      <c r="R23" s="370"/>
+      <c r="S23" s="468"/>
+      <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-    </row>
-    <row r="24" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="30" t="s">
         <v>94</v>
       </c>
@@ -16302,7 +16453,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J24" s="219"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="279">
         <v>148.15</v>
       </c>
@@ -16324,14 +16475,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R24" s="81"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="180"/>
+      <c r="R24" s="455"/>
+      <c r="S24" s="468"/>
+      <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-    </row>
-    <row r="25" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="30" t="s">
         <v>29</v>
       </c>
@@ -16352,7 +16502,7 @@
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="J25" s="219"/>
+      <c r="J25" s="54"/>
       <c r="K25" s="279">
         <v>172.72</v>
       </c>
@@ -16366,22 +16516,23 @@
       <c r="O25" s="245">
         <v>39</v>
       </c>
-      <c r="P25" s="327">
+      <c r="P25" s="429">
         <f t="shared" si="3"/>
         <v>4.539999999999992</v>
       </c>
-      <c r="Q25" s="328">
+      <c r="Q25" s="430">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R25" s="83"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="45"/>
+      <c r="R25" s="480"/>
+      <c r="S25" s="469" t="s">
+        <v>112</v>
+      </c>
+      <c r="T25" s="13"/>
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-    </row>
-    <row r="26" spans="2:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="30" t="s">
         <v>27</v>
       </c>
@@ -16398,7 +16549,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J26" s="219"/>
+      <c r="J26" s="54"/>
       <c r="K26" s="279"/>
       <c r="L26" s="214"/>
       <c r="M26" s="42"/>
@@ -16412,14 +16563,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R26" s="377"/>
-      <c r="S26" s="377"/>
-      <c r="T26" s="180"/>
+      <c r="R26" s="371"/>
+      <c r="S26" s="468"/>
+      <c r="T26" s="13"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-    </row>
-    <row r="27" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="30" t="s">
         <v>72</v>
       </c>
@@ -16440,7 +16590,7 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="J27" s="219"/>
+      <c r="J27" s="54"/>
       <c r="K27" s="279">
         <v>186.37</v>
       </c>
@@ -16463,13 +16613,12 @@
         <v>0</v>
       </c>
       <c r="R27" s="211"/>
-      <c r="S27" s="211"/>
-      <c r="T27" s="45"/>
+      <c r="S27" s="463"/>
+      <c r="T27" s="13"/>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-    </row>
-    <row r="28" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="64" t="s">
         <v>33</v>
       </c>
@@ -16490,7 +16639,7 @@
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="J28" s="219"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="279">
         <v>1064.8699999999999</v>
       </c>
@@ -16501,23 +16650,24 @@
       <c r="N28" s="244">
         <v>1052.82</v>
       </c>
-      <c r="O28" s="291"/>
-      <c r="P28" s="327">
+      <c r="O28" s="284"/>
+      <c r="P28" s="431">
         <f t="shared" si="3"/>
         <v>-12.049999999999955</v>
       </c>
-      <c r="Q28" s="328">
+      <c r="Q28" s="432">
         <f t="shared" si="3"/>
         <v>-38</v>
       </c>
       <c r="R28" s="211"/>
-      <c r="S28" s="211"/>
-      <c r="T28" s="180"/>
+      <c r="S28" s="470" t="s">
+        <v>113</v>
+      </c>
+      <c r="T28" s="13"/>
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-    </row>
-    <row r="29" spans="2:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="2:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="30" t="s">
         <v>34</v>
       </c>
@@ -16534,7 +16684,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J29" s="219"/>
+      <c r="J29" s="54"/>
       <c r="K29" s="279"/>
       <c r="L29" s="214"/>
       <c r="M29" s="42"/>
@@ -16549,13 +16699,12 @@
         <v>0</v>
       </c>
       <c r="R29" s="211"/>
-      <c r="S29" s="211"/>
-      <c r="T29" s="45"/>
+      <c r="S29" s="463"/>
+      <c r="T29" s="13"/>
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-    </row>
-    <row r="30" spans="2:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="2:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="30" t="s">
         <v>70</v>
       </c>
@@ -16572,7 +16721,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J30" s="219"/>
+      <c r="J30" s="54"/>
       <c r="K30" s="279"/>
       <c r="L30" s="214"/>
       <c r="M30" s="42"/>
@@ -16586,14 +16735,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R30" s="90"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="180"/>
+      <c r="R30" s="456"/>
+      <c r="S30" s="468"/>
+      <c r="T30" s="13"/>
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-    </row>
-    <row r="31" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="30" t="s">
         <v>39</v>
       </c>
@@ -16614,7 +16762,7 @@
         <f t="shared" si="4"/>
         <v>512</v>
       </c>
-      <c r="J31" s="219"/>
+      <c r="J31" s="54"/>
       <c r="K31" s="279">
         <v>13925.54</v>
       </c>
@@ -16628,22 +16776,23 @@
       <c r="O31" s="245">
         <v>512</v>
       </c>
-      <c r="P31" s="327">
+      <c r="P31" s="433">
         <f t="shared" si="3"/>
         <v>10.979999999999563</v>
       </c>
-      <c r="Q31" s="328">
+      <c r="Q31" s="434">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R31" s="92"/>
-      <c r="S31" s="93"/>
-      <c r="T31" s="180"/>
+      <c r="R31" s="367"/>
+      <c r="S31" s="471" t="s">
+        <v>114</v>
+      </c>
+      <c r="T31" s="13"/>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-    </row>
-    <row r="32" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="212" t="s">
         <v>56</v>
       </c>
@@ -16664,7 +16813,7 @@
         <f t="shared" si="4"/>
         <v>278</v>
       </c>
-      <c r="J32" s="219"/>
+      <c r="J32" s="54"/>
       <c r="K32" s="279">
         <v>2780</v>
       </c>
@@ -16686,14 +16835,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R32" s="92"/>
-      <c r="S32" s="93"/>
-      <c r="T32" s="45"/>
+      <c r="R32" s="367"/>
+      <c r="S32" s="463"/>
+      <c r="T32" s="13"/>
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-    </row>
-    <row r="33" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="212" t="s">
         <v>57</v>
       </c>
@@ -16714,7 +16862,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J33" s="219"/>
+      <c r="J33" s="54"/>
       <c r="K33" s="279">
         <v>90</v>
       </c>
@@ -16736,14 +16884,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R33" s="94"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="45"/>
+      <c r="R33" s="457"/>
+      <c r="S33" s="463"/>
+      <c r="T33" s="13"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-    </row>
-    <row r="34" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="262" t="s">
         <v>95</v>
       </c>
@@ -16764,7 +16911,7 @@
         <f t="shared" si="4"/>
         <v>312</v>
       </c>
-      <c r="J34" s="219"/>
+      <c r="J34" s="54"/>
       <c r="K34" s="279">
         <v>3120</v>
       </c>
@@ -16786,14 +16933,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R34" s="100"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="45"/>
+      <c r="R34" s="458"/>
+      <c r="S34" s="463"/>
+      <c r="T34" s="13"/>
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-    </row>
-    <row r="35" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="102" t="s">
         <v>32</v>
       </c>
@@ -16810,7 +16956,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J35" s="219"/>
+      <c r="J35" s="54"/>
       <c r="K35" s="279"/>
       <c r="L35" s="214"/>
       <c r="M35" s="42"/>
@@ -16824,14 +16970,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R35" s="104"/>
-      <c r="S35" s="105"/>
-      <c r="T35" s="45"/>
+      <c r="R35" s="459"/>
+      <c r="S35" s="463"/>
+      <c r="T35" s="13"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-    </row>
-    <row r="36" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="102" t="s">
         <v>31</v>
       </c>
@@ -16848,7 +16993,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J36" s="219"/>
+      <c r="J36" s="54"/>
       <c r="K36" s="279"/>
       <c r="L36" s="214"/>
       <c r="M36" s="42"/>
@@ -16862,13 +17007,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R36" s="104"/>
-      <c r="S36" s="105"/>
+      <c r="R36" s="459"/>
+      <c r="S36" s="472"/>
+      <c r="T36" s="13"/>
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-    </row>
-    <row r="37" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="110" t="s">
         <v>38</v>
       </c>
@@ -16885,7 +17030,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J37" s="219"/>
+      <c r="J37" s="54"/>
       <c r="K37" s="279"/>
       <c r="L37" s="214"/>
       <c r="M37" s="42"/>
@@ -16899,16 +17044,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R37" s="107"/>
-      <c r="S37" s="108"/>
-      <c r="T37" s="45"/>
+      <c r="R37" s="369"/>
+      <c r="S37" s="463"/>
+      <c r="T37" s="13"/>
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-    </row>
-    <row r="38" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="109"/>
-      <c r="B38" s="345" t="s">
+      <c r="B38" s="344" t="s">
         <v>59</v>
       </c>
       <c r="C38" s="28">
@@ -16928,7 +17072,7 @@
         <f t="shared" si="4"/>
         <v>101</v>
       </c>
-      <c r="J38" s="219"/>
+      <c r="J38" s="54"/>
       <c r="K38" s="279">
         <v>2302.73</v>
       </c>
@@ -16942,22 +17086,23 @@
       <c r="O38" s="245">
         <v>101</v>
       </c>
-      <c r="P38" s="327">
+      <c r="P38" s="435">
         <f t="shared" si="3"/>
         <v>-6.2100000000000364</v>
       </c>
-      <c r="Q38" s="328">
+      <c r="Q38" s="436">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R38" s="107"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="180"/>
+      <c r="R38" s="369"/>
+      <c r="S38" s="473" t="s">
+        <v>115</v>
+      </c>
+      <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-    </row>
-    <row r="39" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="110" t="s">
         <v>107</v>
       </c>
@@ -16978,7 +17123,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J39" s="219"/>
+      <c r="J39" s="54"/>
       <c r="K39" s="279">
         <v>5621.79</v>
       </c>
@@ -16989,7 +17134,7 @@
       <c r="N39" s="244">
         <v>5621.79</v>
       </c>
-      <c r="O39" s="291"/>
+      <c r="O39" s="284"/>
       <c r="P39" s="327">
         <f t="shared" ref="P39:Q44" si="5">H39-K39</f>
         <v>0</v>
@@ -16999,13 +17144,12 @@
         <v>0</v>
       </c>
       <c r="R39" s="114"/>
-      <c r="S39" s="114"/>
-      <c r="T39" s="45"/>
+      <c r="S39" s="463"/>
+      <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-    </row>
-    <row r="40" spans="1:23" ht="20.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:22" ht="32.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="30" t="s">
         <v>96</v>
       </c>
@@ -17022,7 +17166,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J40" s="219"/>
+      <c r="J40" s="54"/>
       <c r="K40" s="279"/>
       <c r="L40" s="214"/>
       <c r="M40" s="42"/>
@@ -17036,14 +17180,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R40" s="116"/>
-      <c r="S40" s="117"/>
-      <c r="T40" s="409"/>
+      <c r="R40" s="460"/>
+      <c r="S40" s="474"/>
+      <c r="T40" s="13"/>
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-    </row>
-    <row r="41" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="263" t="s">
         <v>37</v>
       </c>
@@ -17060,7 +17203,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J41" s="219"/>
+      <c r="J41" s="54"/>
       <c r="K41" s="280"/>
       <c r="L41" s="256"/>
       <c r="M41" s="42"/>
@@ -17074,14 +17217,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R41" s="116"/>
-      <c r="S41" s="117"/>
-      <c r="T41" s="45"/>
+      <c r="R41" s="460"/>
+      <c r="S41" s="463"/>
+      <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-    </row>
-    <row r="42" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="263" t="s">
         <v>41</v>
       </c>
@@ -17098,7 +17240,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J42" s="220"/>
+      <c r="J42" s="124"/>
       <c r="K42" s="281"/>
       <c r="L42" s="216"/>
       <c r="M42" s="124"/>
@@ -17112,14 +17254,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R42" s="129"/>
-      <c r="S42" s="130"/>
-      <c r="T42" s="45"/>
+      <c r="R42" s="461"/>
+      <c r="S42" s="463"/>
+      <c r="T42" s="13"/>
       <c r="U42" s="13"/>
       <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-    </row>
-    <row r="43" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="323" t="s">
         <v>43</v>
       </c>
@@ -17136,7 +17277,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J43" s="219"/>
+      <c r="J43" s="54"/>
       <c r="K43" s="281"/>
       <c r="L43" s="216"/>
       <c r="M43" s="124"/>
@@ -17150,14 +17291,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R43" s="107"/>
-      <c r="S43" s="108"/>
-      <c r="T43" s="45"/>
+      <c r="R43" s="369"/>
+      <c r="S43" s="463"/>
+      <c r="T43" s="13"/>
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-    </row>
-    <row r="44" spans="1:23" ht="18.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:22" ht="32.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="324" t="s">
         <v>42</v>
       </c>
@@ -17174,7 +17314,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J44" s="219"/>
+      <c r="J44" s="54"/>
       <c r="K44" s="281"/>
       <c r="L44" s="216"/>
       <c r="M44" s="124"/>
@@ -17188,14 +17328,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R44" s="107"/>
-      <c r="S44" s="108"/>
-      <c r="T44" s="45"/>
+      <c r="R44" s="369"/>
+      <c r="S44" s="463"/>
+      <c r="T44" s="13"/>
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-    </row>
-    <row r="45" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="263" t="s">
         <v>74</v>
       </c>
@@ -17220,7 +17359,7 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="J45" s="219"/>
+      <c r="J45" s="54"/>
       <c r="K45" s="281">
         <v>345.25</v>
       </c>
@@ -17242,62 +17381,64 @@
         <f>O45-I45</f>
         <v>0</v>
       </c>
-      <c r="R45" s="107"/>
-      <c r="S45" s="108"/>
-      <c r="T45" s="45"/>
+      <c r="R45" s="369"/>
+      <c r="S45" s="463"/>
+      <c r="T45" s="13"/>
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-    </row>
-    <row r="46" spans="1:23" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:22" ht="45.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="263" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="414">
+      <c r="C46" s="375">
         <v>10.63</v>
       </c>
-      <c r="D46" s="413">
+      <c r="D46" s="374">
         <v>-2</v>
       </c>
       <c r="E46" s="30"/>
       <c r="F46" s="28"/>
       <c r="G46" s="259"/>
-      <c r="H46" s="415">
+      <c r="H46" s="376">
         <f t="shared" si="4"/>
         <v>10.63</v>
       </c>
-      <c r="I46" s="416">
+      <c r="I46" s="377">
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="J46" s="219"/>
+      <c r="J46" s="54"/>
       <c r="K46" s="282">
         <v>10.63</v>
       </c>
-      <c r="L46" s="417">
+      <c r="L46" s="378">
         <v>-2</v>
       </c>
       <c r="M46" s="124"/>
-      <c r="N46" s="244"/>
-      <c r="O46" s="245"/>
-      <c r="P46" s="327">
+      <c r="N46" s="244">
+        <v>0</v>
+      </c>
+      <c r="O46" s="245">
+        <v>0</v>
+      </c>
+      <c r="P46" s="431">
         <f t="shared" ref="P46:Q47" si="6">N46-H46</f>
         <v>-10.63</v>
       </c>
-      <c r="Q46" s="328">
+      <c r="Q46" s="432">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="R46" s="107"/>
-      <c r="S46" s="108"/>
-      <c r="T46" s="199" t="s">
-        <v>109</v>
-      </c>
+      <c r="R46" s="369"/>
+      <c r="S46" s="470" t="s">
+        <v>117</v>
+      </c>
+      <c r="T46" s="13"/>
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-    </row>
-    <row r="47" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:22" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="263" t="s">
         <v>44</v>
       </c>
@@ -17322,7 +17463,7 @@
         <f t="shared" si="4"/>
         <v>107</v>
       </c>
-      <c r="J47" s="219"/>
+      <c r="J47" s="54"/>
       <c r="K47" s="281">
         <v>2463.2399999999998</v>
       </c>
@@ -17336,22 +17477,23 @@
       <c r="O47" s="245">
         <v>107</v>
       </c>
-      <c r="P47" s="327">
+      <c r="P47" s="427">
         <f t="shared" si="6"/>
         <v>56.020000000000437</v>
       </c>
-      <c r="Q47" s="328">
+      <c r="Q47" s="428">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R47" s="107"/>
-      <c r="S47" s="108"/>
-      <c r="T47" s="45"/>
+      <c r="R47" s="369"/>
+      <c r="S47" s="475" t="s">
+        <v>116</v>
+      </c>
+      <c r="T47" s="13"/>
       <c r="U47" s="13"/>
       <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-    </row>
-    <row r="48" spans="1:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:22" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="265" t="s">
         <v>45</v>
       </c>
@@ -17368,7 +17510,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J48" s="219"/>
+      <c r="J48" s="54"/>
       <c r="K48" s="281"/>
       <c r="L48" s="216"/>
       <c r="M48" s="124"/>
@@ -17382,14 +17524,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R48" s="107"/>
-      <c r="S48" s="108"/>
-      <c r="T48" s="45"/>
+      <c r="R48" s="369"/>
+      <c r="S48" s="463"/>
+      <c r="T48" s="13"/>
       <c r="U48" s="13"/>
       <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-    </row>
-    <row r="49" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="2:22" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="261"/>
       <c r="C49" s="115"/>
       <c r="D49" s="29"/>
@@ -17404,7 +17545,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J49" s="219"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="281"/>
       <c r="L49" s="216"/>
       <c r="M49" s="124"/>
@@ -17418,14 +17559,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R49" s="107"/>
-      <c r="S49" s="108"/>
-      <c r="T49" s="45"/>
+      <c r="R49" s="369"/>
+      <c r="S49" s="463"/>
+      <c r="T49" s="13"/>
       <c r="U49" s="13"/>
       <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-    </row>
-    <row r="50" spans="2:23" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="2:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="266"/>
       <c r="C50" s="269"/>
       <c r="D50" s="271"/>
@@ -17440,7 +17580,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J50" s="6"/>
+      <c r="J50" s="54"/>
       <c r="K50" s="281"/>
       <c r="L50" s="216"/>
       <c r="M50" s="124"/>
@@ -17455,26 +17595,25 @@
         <v>0</v>
       </c>
       <c r="R50" s="143"/>
-      <c r="S50" s="144"/>
-      <c r="T50" s="45"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="13"/>
       <c r="U50" s="13"/>
       <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-    </row>
-    <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="406" t="s">
+      <c r="F51" s="426" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="406"/>
+      <c r="G51" s="426"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>34034.630000000005</v>
       </c>
       <c r="I51" s="149">
         <f>SUM(I5:I34)</f>
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="J51" s="149"/>
       <c r="K51" s="149"/>
@@ -17490,41 +17629,40 @@
       <c r="P51" s="153"/>
       <c r="Q51" s="154"/>
       <c r="R51" s="155"/>
-      <c r="S51" s="42"/>
-      <c r="T51" s="45"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="13"/>
       <c r="U51" s="13"/>
       <c r="V51" s="13"/>
-      <c r="W51" s="13"/>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="P52" s="157"/>
       <c r="Q52" s="158"/>
-      <c r="R52" s="159"/>
-      <c r="T52" s="45"/>
+      <c r="R52" s="481"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="13"/>
       <c r="U52" s="13"/>
       <c r="V52" s="13"/>
-      <c r="W52" s="13"/>
-    </row>
-    <row r="53" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="77"/>
       <c r="C53" s="160"/>
       <c r="D53" s="77"/>
       <c r="E53" s="77"/>
       <c r="F53" s="77"/>
       <c r="G53" s="1"/>
-      <c r="T53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="13"/>
       <c r="U53" s="13"/>
       <c r="V53" s="13"/>
-      <c r="W53" s="13"/>
-    </row>
-    <row r="54" spans="2:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="353" t="s">
+    </row>
+    <row r="54" spans="2:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="352" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="354"/>
-      <c r="E54" s="355"/>
-      <c r="F54" s="355"/>
-      <c r="G54" s="356"/>
+      <c r="D54" s="353"/>
+      <c r="E54" s="354"/>
+      <c r="F54" s="354"/>
+      <c r="G54" s="355"/>
       <c r="H54" s="166"/>
       <c r="I54" s="166"/>
       <c r="J54" s="166"/>
@@ -17536,7 +17674,7 @@
       <c r="P54" s="168"/>
       <c r="Q54" s="169"/>
     </row>
-    <row r="55" spans="2:23" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="170"/>
       <c r="D55" s="315"/>
       <c r="E55" s="316"/>
@@ -17552,30 +17690,29 @@
       <c r="O55" s="302"/>
       <c r="P55" s="303"/>
       <c r="Q55" s="304"/>
-      <c r="R55" s="171"/>
-      <c r="S55" s="172"/>
-      <c r="T55" s="173"/>
-      <c r="U55" s="174"/>
-    </row>
-    <row r="56" spans="2:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R55" s="174"/>
+      <c r="S55" s="173"/>
+      <c r="T55" s="174"/>
+    </row>
+    <row r="56" spans="2:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="175"/>
-      <c r="C56" s="351"/>
+      <c r="C56" s="350"/>
       <c r="D56" s="163"/>
-      <c r="E56" s="352"/>
-      <c r="F56" s="352"/>
-      <c r="G56" s="352"/>
-      <c r="H56" s="352"/>
-      <c r="I56" s="352"/>
-      <c r="J56" s="352"/>
-      <c r="K56" s="352"/>
-      <c r="L56" s="352"/>
+      <c r="E56" s="351"/>
+      <c r="F56" s="351"/>
+      <c r="G56" s="351"/>
+      <c r="H56" s="351"/>
+      <c r="I56" s="351"/>
+      <c r="J56" s="351"/>
+      <c r="K56" s="351"/>
+      <c r="L56" s="351"/>
       <c r="M56" s="305"/>
       <c r="N56" s="305"/>
       <c r="O56" s="305"/>
       <c r="P56" s="168"/>
       <c r="Q56" s="306"/>
     </row>
-    <row r="57" spans="2:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="175"/>
       <c r="C57" s="176"/>
       <c r="D57" s="177"/>
@@ -17593,43 +17730,43 @@
       <c r="P57" s="179"/>
       <c r="Q57" s="169"/>
     </row>
-    <row r="58" spans="2:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="175"/>
-      <c r="C58" s="357"/>
-      <c r="D58" s="358"/>
-      <c r="E58" s="359"/>
-      <c r="F58" s="359"/>
-      <c r="G58" s="359"/>
-      <c r="H58" s="359"/>
-      <c r="I58" s="360"/>
-      <c r="J58" s="360"/>
-      <c r="K58" s="360"/>
-      <c r="L58" s="360"/>
+      <c r="C58" s="356"/>
+      <c r="D58" s="357"/>
+      <c r="E58" s="358"/>
+      <c r="F58" s="358"/>
+      <c r="G58" s="358"/>
+      <c r="H58" s="358"/>
+      <c r="I58" s="359"/>
+      <c r="J58" s="359"/>
+      <c r="K58" s="359"/>
+      <c r="L58" s="359"/>
       <c r="M58" s="181"/>
       <c r="N58" s="181"/>
       <c r="O58" s="181"/>
       <c r="P58" s="179"/>
       <c r="Q58" s="169"/>
     </row>
-    <row r="59" spans="2:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="175"/>
-      <c r="C59" s="363"/>
-      <c r="D59" s="361"/>
-      <c r="E59" s="362"/>
-      <c r="F59" s="362"/>
-      <c r="G59" s="362"/>
-      <c r="H59" s="362"/>
-      <c r="I59" s="362"/>
-      <c r="J59" s="362"/>
-      <c r="K59" s="362"/>
-      <c r="L59" s="362"/>
-      <c r="M59" s="362"/>
+      <c r="C59" s="362"/>
+      <c r="D59" s="360"/>
+      <c r="E59" s="361"/>
+      <c r="F59" s="361"/>
+      <c r="G59" s="361"/>
+      <c r="H59" s="361"/>
+      <c r="I59" s="361"/>
+      <c r="J59" s="361"/>
+      <c r="K59" s="361"/>
+      <c r="L59" s="361"/>
+      <c r="M59" s="361"/>
       <c r="N59" s="183"/>
       <c r="O59" s="178"/>
       <c r="P59" s="184"/>
       <c r="Q59" s="185"/>
     </row>
-    <row r="60" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="175"/>
       <c r="C60" s="176"/>
       <c r="D60" s="186"/>
@@ -17647,7 +17784,7 @@
       <c r="P60" s="184"/>
       <c r="Q60" s="185"/>
     </row>
-    <row r="61" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="175"/>
       <c r="C61" s="176"/>
       <c r="D61" s="187"/>
@@ -17665,7 +17802,7 @@
       <c r="P61" s="184"/>
       <c r="Q61" s="185"/>
     </row>
-    <row r="62" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="175"/>
       <c r="C62" s="176"/>
       <c r="D62" s="188"/>
@@ -17681,24 +17818,11 @@
       <c r="N62" s="13"/>
       <c r="O62" s="178"/>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R10:S10"/>
+  <mergeCells count="11">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:I2"/>
@@ -17707,6 +17831,9 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="S15:S16"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
